--- a/tut05/output/0401ME18.xlsx
+++ b/tut05/output/0401ME18.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.979591836734694</v>
+        <v>6.98</v>
       </c>
       <c r="C6" t="n">
-        <v>5.818181818181818</v>
+        <v>5.82</v>
       </c>
       <c r="D6" t="n">
-        <v>6.659574468085107</v>
+        <v>6.66</v>
       </c>
       <c r="E6" t="n">
-        <v>6.244897959183674</v>
+        <v>6.24</v>
       </c>
       <c r="F6" t="n">
-        <v>6.043478260869565</v>
+        <v>6.04</v>
       </c>
       <c r="G6" t="n">
-        <v>7.347826086956522</v>
+        <v>7.35</v>
       </c>
       <c r="H6" t="n">
         <v>8.949999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.979591836734694</v>
+        <v>6.98</v>
       </c>
       <c r="C8" t="n">
-        <v>6.43010752688172</v>
+        <v>6.43</v>
       </c>
       <c r="D8" t="n">
-        <v>6.507142857142857</v>
+        <v>6.51</v>
       </c>
       <c r="E8" t="n">
-        <v>6.439153439153439</v>
+        <v>6.44</v>
       </c>
       <c r="F8" t="n">
-        <v>6.361702127659575</v>
+        <v>6.36</v>
       </c>
       <c r="G8" t="n">
-        <v>6.523131672597865</v>
+        <v>6.52</v>
       </c>
       <c r="H8" t="n">
-        <v>6.825545171339564</v>
+        <v>6.83</v>
       </c>
       <c r="I8" t="n">
-        <v>6.889196675900277</v>
+        <v>6.89</v>
       </c>
     </row>
   </sheetData>
